--- a/translations/config.xlsx
+++ b/translations/config.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Feuil2 (2)" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$368</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$370</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="808">
   <si>
     <t>clé</t>
   </si>
@@ -214,7 +214,10 @@
     <t>assign slot</t>
   </si>
   <si>
-    <t>assigner créneau</t>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>assigner</t>
   </si>
   <si>
     <t>authentication error</t>
@@ -658,6 +661,12 @@
     <t>consigne</t>
   </si>
   <si>
+    <t>discipline report</t>
+  </si>
+  <si>
+    <t>rapport discipline</t>
+  </si>
+  <si>
     <t>download</t>
   </si>
   <si>
@@ -853,6 +862,12 @@
     <t>échecs</t>
   </si>
   <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>échec</t>
+  </si>
+  <si>
     <t>father</t>
   </si>
   <si>
@@ -964,7 +979,7 @@
     <t>free slot</t>
   </si>
   <si>
-    <t>libérer créneau</t>
+    <t>libérer</t>
   </si>
   <si>
     <t>free time slot</t>
@@ -1643,6 +1658,12 @@
     <t>solder pension</t>
   </si>
   <si>
+    <t>payment done</t>
+  </si>
+  <si>
+    <t>paiement enregistré</t>
+  </si>
+  <si>
     <t>payment history</t>
   </si>
   <si>
@@ -1958,6 +1979,9 @@
     <t>gestion scolaire</t>
   </si>
   <si>
+    <t>school year</t>
+  </si>
+  <si>
     <t>search</t>
   </si>
   <si>
@@ -2159,6 +2183,12 @@
     <t>infos élèves</t>
   </si>
   <si>
+    <t>student file</t>
+  </si>
+  <si>
+    <t>fiche de l'élève</t>
+  </si>
+  <si>
     <t>student info</t>
   </si>
   <si>
@@ -2171,6 +2201,12 @@
     <t>élève mis à jour</t>
   </si>
   <si>
+    <t>students table</t>
+  </si>
+  <si>
+    <t>table des élèves</t>
+  </si>
+  <si>
     <t>students without note</t>
   </si>
   <si>
@@ -2219,6 +2255,12 @@
     <t>affectation réussie</t>
   </si>
   <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>résumé</t>
+  </si>
+  <si>
     <t>surname</t>
   </si>
   <si>
@@ -2366,6 +2408,15 @@
     <t>Bienvenue</t>
   </si>
   <si>
+    <t>welcome to SP</t>
+  </si>
+  <si>
+    <t>Welcome to School Pilot</t>
+  </si>
+  <si>
+    <t>Bienvenue sur School Pilot</t>
+  </si>
+  <si>
     <t>xls format</t>
   </si>
   <si>
@@ -2388,54 +2439,6 @@
   </si>
   <si>
     <t>AAAA</t>
-  </si>
-  <si>
-    <t>school year</t>
-  </si>
-  <si>
-    <t>students table</t>
-  </si>
-  <si>
-    <t>table des élèves</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>échec</t>
-  </si>
-  <si>
-    <t>welcome to SP</t>
-  </si>
-  <si>
-    <t>Welcome to School Pilot</t>
-  </si>
-  <si>
-    <t>Bienvenue sur School Pilot</t>
-  </si>
-  <si>
-    <t>student file</t>
-  </si>
-  <si>
-    <t>fiche de l'élève</t>
-  </si>
-  <si>
-    <t>payment done</t>
-  </si>
-  <si>
-    <t>paiement enregistré</t>
-  </si>
-  <si>
-    <t>discipline report</t>
-  </si>
-  <si>
-    <t>rapport discipline</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>résumé</t>
   </si>
   <si>
     <t>Les prix à l'achat sont promotionnels et sont fonction de la durée choisie</t>
@@ -3326,20 +3329,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3666,9 +3669,9 @@
   <dimension ref="A1:C370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B377" sqref="B377"/>
+      <selection pane="bottomLeft" activeCell="A370" sqref="A370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5555555555556" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -3991,743 +3994,743 @@
         <v>59</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="28.8" spans="1:3">
       <c r="A32" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" ht="172.8" spans="1:3">
       <c r="A43" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.8" spans="1:3">
       <c r="A44" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" ht="28.8" spans="1:3">
       <c r="A72" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95" s="28" t="s">
+      <c r="A95" s="30" t="s">
         <v>211</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="33" t="s">
         <v>213</v>
       </c>
       <c r="C96" s="28" t="s">
@@ -4735,112 +4738,112 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C97" s="25" t="s">
+      <c r="B97" s="27" t="s">
         <v>216</v>
       </c>
+      <c r="C97" s="28" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="28" t="s">
+      <c r="A98" s="23" t="s">
         <v>218</v>
       </c>
+      <c r="B98" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="25" t="s">
+      <c r="A99" s="26" t="s">
         <v>220</v>
       </c>
+      <c r="B99" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100" s="27" t="s">
+      <c r="A100" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="B100" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>223</v>
+      <c r="A101" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="28" t="s">
-        <v>225</v>
+      <c r="C102" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" s="29" t="s">
+      <c r="A103" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="B103" s="27" t="s">
         <v>227</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>230</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="27" t="s">
+      <c r="A105" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="B105" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="25" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="28" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4856,299 +4859,299 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="25" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="28" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="110" ht="28.8" spans="1:3">
-      <c r="A110" s="26" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="23" t="s">
+    <row r="111" ht="28.8" spans="1:3">
+      <c r="A111" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B111" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>235</v>
+      <c r="B111" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>250</v>
+      <c r="A112" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C113" s="25" t="s">
+      <c r="A113" s="26" t="s">
         <v>252</v>
       </c>
+      <c r="B113" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="28" t="s">
+      <c r="A114" s="23" t="s">
         <v>254</v>
       </c>
+      <c r="B114" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C115" s="25" t="s">
+      <c r="A115" s="26" t="s">
         <v>256</v>
       </c>
+      <c r="B115" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B116" s="27" t="s">
+      <c r="A116" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="B116" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" s="25" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B117" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="C117" s="25" t="s">
+      <c r="B117" s="27" t="s">
         <v>261</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C119" s="28" t="s">
+      <c r="A119" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C120" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="26" t="s">
+      <c r="A121" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="25" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="23" t="s">
+      <c r="A122" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B122" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="25" t="s">
+      <c r="B122" s="27" t="s">
         <v>270</v>
       </c>
+      <c r="C122" s="28" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C123" s="28" t="s">
+      <c r="A123" s="23" t="s">
         <v>272</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B124" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C125" s="25" t="s">
+      <c r="A125" s="30" t="s">
         <v>276</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="B133" s="27" t="s">
+      <c r="A133" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="C133" s="28" t="s">
+      <c r="B133" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="28" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5157,53 +5160,53 @@
         <v>296</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="C138" s="28" t="s">
+      <c r="A138" s="23" t="s">
         <v>303</v>
       </c>
+      <c r="B138" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B139" s="29" t="s">
+      <c r="A139" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="B139" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5223,92 +5226,92 @@
         <v>309</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" ht="19.8" customHeight="1" spans="1:3">
       <c r="A142" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="C145" s="32" t="s">
+      <c r="A145" s="23" t="s">
         <v>318</v>
       </c>
+      <c r="B145" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="25" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="C146" s="32" t="s">
+      <c r="A146" s="26" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="147" ht="216" spans="1:3">
-      <c r="A147" s="23" t="s">
+      <c r="B146" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="B147" s="29" t="s">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="B147" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" s="32" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="26" t="s">
+      <c r="A148" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B148" s="27" t="s">
+      <c r="B148" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="C148" s="28" t="s">
+    </row>
+    <row r="149" ht="216" spans="1:3">
+      <c r="A149" s="23" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="23" t="s">
-        <v>327</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>327</v>
@@ -5329,74 +5332,74 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="26" t="s">
+      <c r="A151" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="25" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="23" t="s">
+      <c r="A152" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B152" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="C152" s="25" t="s">
+      <c r="B152" s="27" t="s">
         <v>335</v>
       </c>
+      <c r="C152" s="28" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="C153" s="25" t="s">
+      <c r="A153" s="26" t="s">
         <v>337</v>
       </c>
+      <c r="B153" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="C154" s="28" t="s">
+      <c r="A154" s="23" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="155" ht="28.8" spans="1:3">
-      <c r="A155" s="26" t="s">
+      <c r="B154" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B155" s="27" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="B155" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C155" s="25" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="23" t="s">
+      <c r="A156" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C156" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="C156" s="25" t="s">
+    </row>
+    <row r="157" ht="28.8" spans="1:3">
+      <c r="A157" s="26" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="26" t="s">
-        <v>346</v>
       </c>
       <c r="B157" s="27" t="s">
         <v>346</v>
@@ -5410,15 +5413,15 @@
         <v>348</v>
       </c>
       <c r="B158" s="29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="159" ht="28.8" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B159" s="27" t="s">
         <v>351</v>
@@ -5438,45 +5441,45 @@
         <v>354</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" ht="28.8" spans="1:3">
       <c r="A161" s="26" t="s">
         <v>355</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>357</v>
+      <c r="A162" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B163" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C163" s="25" t="s">
+      <c r="A163" s="26" t="s">
         <v>360</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C164" s="28" t="s">
         <v>362</v>
@@ -5494,30 +5497,30 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="B166" s="29" t="s">
+      <c r="B166" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="28" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="26" t="s">
+      <c r="A167" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B167" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="C167" s="28" t="s">
+      <c r="B167" s="29" t="s">
         <v>369</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B168" s="29" t="s">
         <v>371</v>
@@ -5527,24 +5530,24 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="23" t="s">
+      <c r="A169" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="28" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="26" t="s">
+      <c r="A170" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="C170" s="28" t="s">
+      <c r="C170" s="25" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5556,166 +5559,166 @@
         <v>378</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="B172" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C172" s="25" t="s">
+      <c r="A172" s="26" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="173" ht="100.8" spans="1:3">
-      <c r="A173" s="26" t="s">
+      <c r="B172" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="C172" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C173" s="28" t="s">
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="23" t="s">
         <v>383</v>
       </c>
+      <c r="B173" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="26" t="s">
+      <c r="A174" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" ht="100.8" spans="1:3">
       <c r="A175" s="26" t="s">
         <v>386</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B176" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="C176" s="25" t="s">
+      <c r="A176" s="26" t="s">
         <v>389</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B178" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B179" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C179" s="35" t="s">
-        <v>180</v>
+      <c r="B179" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="B180" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C180" s="28" t="s">
+      <c r="A180" s="23" t="s">
         <v>397</v>
       </c>
+      <c r="B180" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="B181" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="C181" s="25" t="s">
+      <c r="A181" s="26" t="s">
         <v>399</v>
+      </c>
+      <c r="B181" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C181" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B182" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B183" s="29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B185" s="29" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B186" s="27" t="s">
         <v>409</v>
@@ -5729,18 +5732,18 @@
         <v>411</v>
       </c>
       <c r="B187" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C187" s="25" t="s">
         <v>412</v>
-      </c>
-      <c r="C187" s="25" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B188" s="27" t="s">
         <v>414</v>
-      </c>
-      <c r="B188" s="27" t="s">
-        <v>415</v>
       </c>
       <c r="C188" s="28" t="s">
         <v>415</v>
@@ -5754,15 +5757,15 @@
         <v>417</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C190" s="28" t="s">
         <v>420</v>
@@ -5776,78 +5779,78 @@
         <v>422</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B192" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="C192" s="28" t="s">
         <v>425</v>
-      </c>
-      <c r="C192" s="28" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="B193" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="B193" s="29" t="s">
+      <c r="C193" s="25" t="s">
         <v>428</v>
-      </c>
-      <c r="C193" s="25" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="B194" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="C194" s="28" t="s">
         <v>431</v>
-      </c>
-      <c r="C194" s="28" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B195" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B195" s="29" t="s">
+      <c r="C195" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="C195" s="25" t="s">
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="26" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="23" t="s">
+      <c r="B196" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="B196" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="28" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="26" t="s">
+      <c r="A197" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="B197" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="C197" s="28" t="s">
+      <c r="B197" s="29" t="s">
         <v>439</v>
+      </c>
+      <c r="C197" s="25" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B198" s="29" t="s">
         <v>441</v>
@@ -5861,86 +5864,86 @@
         <v>443</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C199" s="28" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="B200" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="C200" s="32" t="s">
+      <c r="B200" s="29" t="s">
         <v>446</v>
       </c>
+      <c r="C200" s="25" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="B201" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="C201" s="25" t="s">
+      <c r="A201" s="26" t="s">
         <v>448</v>
       </c>
+      <c r="B201" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="B202" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="C202" s="28" t="s">
+      <c r="A202" s="30" t="s">
         <v>450</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="B203" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="C203" s="36" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B204" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="C204" s="25" t="s">
-        <v>452</v>
+      <c r="A204" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="B205" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="C205" s="28" t="s">
-        <v>455</v>
+      <c r="A205" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="B205" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="B206" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="C206" s="28" t="s">
+      <c r="A206" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="C206" s="25" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5948,85 +5951,85 @@
       <c r="A207" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="B207" s="33" t="s">
-        <v>458</v>
+      <c r="B207" s="27" t="s">
+        <v>459</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="B208" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>460</v>
+      <c r="A208" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C208" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B209" s="27" t="s">
-        <v>461</v>
+        <v>463</v>
+      </c>
+      <c r="B209" s="33" t="s">
+        <v>463</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B210" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="C210" s="28" t="s">
-        <v>464</v>
+      <c r="A210" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="B211" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="C211" s="25" t="s">
+      <c r="A211" s="26" t="s">
         <v>466</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="C211" s="28" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B212" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="B212" s="33" t="s">
+        <v>468</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="23" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C213" s="25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="214" ht="28.8" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C214" s="28" t="s">
         <v>472</v>
@@ -6037,15 +6040,15 @@
         <v>473</v>
       </c>
       <c r="B215" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C215" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="C215" s="25" t="s">
+    </row>
+    <row r="216" ht="28.8" spans="1:3">
+      <c r="A216" s="26" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="26" t="s">
-        <v>476</v>
       </c>
       <c r="B216" s="27" t="s">
         <v>476</v>
@@ -6059,15 +6062,15 @@
         <v>478</v>
       </c>
       <c r="B217" s="29" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B218" s="27" t="s">
         <v>481</v>
@@ -6077,76 +6080,76 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="26" t="s">
+      <c r="A219" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="B219" s="27" t="s">
+      <c r="B219" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="C219" s="28" t="s">
+      <c r="C219" s="25" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="23" t="s">
+      <c r="A220" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="B220" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="C220" s="25" t="s">
+      <c r="B220" s="27" t="s">
         <v>486</v>
+      </c>
+      <c r="C220" s="28" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B221" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="23" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B222" s="29" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="B223" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>492</v>
       </c>
       <c r="C223" s="28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="B224" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="B224" s="29" t="s">
+        <v>494</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="B225" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B225" s="33" t="s">
         <v>496</v>
       </c>
       <c r="C225" s="28" t="s">
@@ -6154,90 +6157,90 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="26" t="s">
+      <c r="A226" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="B226" s="27" t="s">
+      <c r="B226" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="C226" s="28" t="s">
+      <c r="C226" s="25" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="23" t="s">
+      <c r="A227" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="B227" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="C227" s="25" t="s">
+      <c r="B227" s="27" t="s">
         <v>501</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B228" s="27" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="23" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B229" s="29" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="26" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="23" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B231" s="29" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="B232" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="C232" s="25" t="s">
-        <v>507</v>
+      <c r="A232" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="B232" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="B233" s="27" t="s">
+      <c r="A233" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="C233" s="28" t="s">
+      <c r="B233" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="C233" s="25" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6245,43 +6248,43 @@
       <c r="A234" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="B234" s="29" t="s">
+      <c r="B234" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="C234" s="25" t="s">
         <v>512</v>
-      </c>
-      <c r="C234" s="25" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B235" s="27" t="s">
         <v>514</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="B236" s="33" t="s">
+      <c r="A236" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="C236" s="28" t="s">
+      <c r="B236" s="29" t="s">
         <v>517</v>
       </c>
+      <c r="C236" s="25" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="B237" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="C237" s="25" t="s">
+      <c r="A237" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C237" s="28" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6289,49 +6292,49 @@
       <c r="A238" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="B238" s="27" t="s">
-        <v>520</v>
+      <c r="B238" s="33" t="s">
+        <v>521</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="23" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B239" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="26" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C240" s="28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="23" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B241" s="29" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B242" s="27" t="s">
         <v>529</v>
@@ -6363,13 +6366,13 @@
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="23" t="s">
+      <c r="A245" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="B245" s="29" t="s">
+      <c r="B245" s="31" t="s">
         <v>536</v>
       </c>
-      <c r="C245" s="25" t="s">
+      <c r="C245" s="32" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6378,163 +6381,163 @@
         <v>538</v>
       </c>
       <c r="B246" s="29" t="s">
-        <v>71</v>
+        <v>538</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>72</v>
+        <v>539</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="B247" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="C247" s="37" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="B247" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="C247" s="28" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="B248" s="27" t="s">
-        <v>540</v>
-      </c>
-      <c r="C248" s="28" t="s">
-        <v>541</v>
+      <c r="A248" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="B248" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C248" s="25" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="23" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B249" s="29" t="s">
-        <v>542</v>
+        <v>72</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>542</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="B250" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="C250" s="25" t="s">
-        <v>544</v>
+      <c r="A250" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="B250" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="26" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B251" s="27" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="23" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B252" s="29" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="B253" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="C253" s="28" t="s">
+      <c r="A253" s="23" t="s">
         <v>550</v>
       </c>
+      <c r="B253" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="B254" s="29" t="s">
-        <v>551</v>
-      </c>
-      <c r="C254" s="25" t="s">
+      <c r="A254" s="26" t="s">
         <v>552</v>
       </c>
+      <c r="B254" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="C254" s="28" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="B255" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="C255" s="28" t="s">
+      <c r="A255" s="23" t="s">
         <v>554</v>
       </c>
+      <c r="B255" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C255" s="25" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="B256" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="C256" s="25" t="s">
+      <c r="A256" s="26" t="s">
         <v>556</v>
       </c>
+      <c r="B256" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="C256" s="28" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="B257" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="C257" s="28" t="s">
+      <c r="A257" s="23" t="s">
         <v>558</v>
       </c>
+      <c r="B257" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="C257" s="25" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="B258" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="C258" s="25" t="s">
+      <c r="A258" s="26" t="s">
         <v>560</v>
       </c>
+      <c r="B258" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="C258" s="28" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="B259" s="31" t="s">
+      <c r="A259" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="C259" s="32" t="s">
+      <c r="B259" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="C259" s="25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="30" t="s">
+      <c r="A260" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="B260" s="31" t="s">
+      <c r="B260" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="C260" s="32" t="s">
+      <c r="C260" s="28" t="s">
         <v>565</v>
       </c>
     </row>
@@ -6542,7 +6545,7 @@
       <c r="A261" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="B261" s="24" t="s">
+      <c r="B261" s="29" t="s">
         <v>566</v>
       </c>
       <c r="C261" s="25" t="s">
@@ -6550,35 +6553,35 @@
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="26" t="s">
+      <c r="A262" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="B262" s="27" t="s">
+      <c r="B262" s="31" t="s">
         <v>569</v>
       </c>
-      <c r="C262" s="28" t="s">
+      <c r="C262" s="32" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="B263" s="29" t="s">
+      <c r="A263" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="C263" s="25" t="s">
+      <c r="B263" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="C263" s="32" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="26" t="s">
+      <c r="A264" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="B264" s="27" t="s">
+      <c r="B264" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="C264" s="28" t="s">
+      <c r="C264" s="25" t="s">
         <v>574</v>
       </c>
     </row>
@@ -6587,10 +6590,10 @@
         <v>575</v>
       </c>
       <c r="B265" s="27" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6598,59 +6601,59 @@
         <v>575</v>
       </c>
       <c r="B266" s="29" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="26" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B267" s="27" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="B268" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="C268" s="25" t="s">
-        <v>581</v>
+      <c r="A268" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="B268" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="26" t="s">
+      <c r="A269" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="B269" s="27" t="s">
+      <c r="B269" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="C269" s="28" t="s">
-        <v>583</v>
+      <c r="C269" s="25" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B270" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="23" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B271" s="29" t="s">
         <v>587</v>
@@ -6664,127 +6667,127 @@
         <v>589</v>
       </c>
       <c r="B272" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="C272" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="C272" s="28" t="s">
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="26" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="23" t="s">
+      <c r="B273" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C273" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="B273" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="C273" s="25" t="s">
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="23" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="26" t="s">
+      <c r="B274" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="B274" s="27" t="s">
+      <c r="C274" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="C274" s="28" t="s">
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="26" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="B275" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="C275" s="25" t="s">
-        <v>591</v>
+      <c r="B275" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="C275" s="28" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="26" t="s">
+      <c r="A276" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="B276" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C276" s="25" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B277" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="C277" s="28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B276" s="27" t="s">
+      <c r="B278" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="C276" s="28" t="s">
+      <c r="C278" s="25" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B277" s="29" t="s">
-        <v>599</v>
-      </c>
-      <c r="C277" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="B278" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="C278" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="B279" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="C279" s="25" t="s">
-        <v>293</v>
+      <c r="A279" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="B279" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="C279" s="28" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="B280" s="24" t="s">
-        <v>603</v>
+        <v>606</v>
+      </c>
+      <c r="B280" s="29" t="s">
+        <v>606</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="26" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B281" s="27" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>606</v>
+        <v>298</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B282" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="C282" s="28" t="s">
+      <c r="A282" s="23" t="s">
         <v>609</v>
+      </c>
+      <c r="B282" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C282" s="25" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="B283" s="29" t="s">
+      <c r="B283" s="24" t="s">
         <v>610</v>
       </c>
       <c r="C283" s="25" t="s">
@@ -6792,179 +6795,179 @@
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="30" t="s">
+      <c r="A284" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B284" s="31" t="s">
+      <c r="B284" s="27" t="s">
         <v>612</v>
       </c>
-      <c r="C284" s="32" t="s">
+      <c r="C284" s="28" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="30" t="s">
+      <c r="A285" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="B285" s="31" t="s">
-        <v>614</v>
-      </c>
-      <c r="C285" s="32" t="s">
+      <c r="B285" s="27" t="s">
         <v>615</v>
       </c>
+      <c r="C285" s="28" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="B286" s="31" t="s">
+      <c r="A286" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="C286" s="32" t="s">
+      <c r="B286" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="C286" s="25" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="26" t="s">
+      <c r="A287" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="B287" s="27" t="s">
+      <c r="B287" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="C287" s="28" t="s">
+      <c r="C287" s="32" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="23" t="s">
+      <c r="A288" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="B288" s="29" t="s">
+      <c r="B288" s="31" t="s">
         <v>621</v>
       </c>
-      <c r="C288" s="25" t="s">
+      <c r="C288" s="32" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="26" t="s">
+      <c r="A289" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="B289" s="27" t="s">
+      <c r="B289" s="31" t="s">
         <v>624</v>
       </c>
-      <c r="C289" s="28" t="s">
+      <c r="C289" s="32" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="23" t="s">
+      <c r="A290" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="B290" s="29" t="s">
+      <c r="B290" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="C290" s="25" t="s">
+      <c r="C290" s="28" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="26" t="s">
+      <c r="A291" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="B291" s="27" t="s">
+      <c r="B291" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="C291" s="25" t="s">
         <v>629</v>
-      </c>
-      <c r="C291" s="28" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="26" t="s">
-        <v>431</v>
+        <v>630</v>
       </c>
       <c r="B292" s="27" t="s">
-        <v>431</v>
+        <v>631</v>
       </c>
       <c r="C292" s="28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="23" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B293" s="29" t="s">
         <v>633</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>278</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" ht="144" customHeight="1" spans="1:3">
       <c r="A294" s="26" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B294" s="27" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C294" s="28" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="295" ht="17.4" customHeight="1" spans="1:3">
-      <c r="A295" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="B295" s="29" t="s">
-        <v>636</v>
-      </c>
-      <c r="C295" s="25" t="s">
-        <v>637</v>
+      <c r="A295" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B295" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="C295" s="28" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="B296" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="C296" s="28" t="s">
+      <c r="A296" s="23" t="s">
         <v>639</v>
       </c>
+      <c r="B296" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="C296" s="25" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="B297" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="C297" s="25" t="s">
+      <c r="A297" s="26" t="s">
         <v>641</v>
       </c>
+      <c r="B297" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="C297" s="28" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="B298" s="27" t="s">
+      <c r="A298" s="30" t="s">
         <v>643</v>
       </c>
-      <c r="C298" s="28" t="s">
-        <v>644</v>
+      <c r="B298" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="C298" s="32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="B299" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="C299" s="25" t="s">
         <v>645</v>
-      </c>
-      <c r="B299" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="C299" s="25" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6994,21 +6997,21 @@
         <v>650</v>
       </c>
       <c r="B302" s="27" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C302" s="28" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="23" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B303" s="29" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="304" ht="196.2" customHeight="1" spans="1:3">
@@ -7059,164 +7062,164 @@
       <c r="A308" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="B308" s="33" t="s">
+      <c r="B308" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="C308" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="C308" s="28" t="s">
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="23" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="30" t="s">
+      <c r="B309" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="C309" s="25" t="s">
         <v>665</v>
-      </c>
-      <c r="B309" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="C309" s="32" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="26" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B310" s="27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C310" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B311" s="29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C311" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="B312" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="C312" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="B312" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="C312" s="28" t="s">
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="30" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="23" t="s">
+      <c r="B313" s="31" t="s">
         <v>674</v>
       </c>
-      <c r="B313" s="29" t="s">
+      <c r="C313" s="32" t="s">
         <v>675</v>
       </c>
-      <c r="C313" s="25" t="s">
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="26" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="314" ht="28.8" spans="1:3">
-      <c r="A314" s="26" t="s">
+      <c r="B314" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C314" s="28" t="s">
         <v>677</v>
-      </c>
-      <c r="B314" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C314" s="28" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B315" s="29" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C315" s="25" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="B316" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="C316" s="28" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="B317" s="29" t="s">
         <v>683</v>
       </c>
-      <c r="B316" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="C316" s="28" t="s">
+      <c r="C317" s="25" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="26" t="s">
+    <row r="318" ht="28.8" spans="1:3">
+      <c r="A318" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="B317" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="C317" s="28" t="s">
+      <c r="B318" s="27" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="30" t="s">
+      <c r="C318" s="28" t="s">
         <v>687</v>
-      </c>
-      <c r="B318" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="C318" s="32" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="B319" s="29" t="s">
         <v>689</v>
       </c>
-      <c r="B319" s="24" t="s">
-        <v>689</v>
-      </c>
       <c r="C319" s="25" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="B320" s="29" t="s">
+      <c r="A320" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="C320" s="25" t="s">
+      <c r="B320" s="27" t="s">
+        <v>691</v>
+      </c>
+      <c r="C320" s="28" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="23" t="s">
+      <c r="A321" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="B321" s="29" t="s">
+      <c r="B321" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="C321" s="25" t="s">
+      <c r="C321" s="28" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="26" t="s">
+      <c r="A322" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="B322" s="27" t="s">
+      <c r="B322" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="C322" s="28" t="s">
+      <c r="C322" s="32" t="s">
         <v>696</v>
       </c>
     </row>
@@ -7224,44 +7227,44 @@
       <c r="A323" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="B323" s="29" t="s">
+      <c r="B323" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="C323" s="25" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="C323" s="25" t="s">
+      <c r="B324" s="29" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="26" t="s">
+      <c r="C324" s="25" t="s">
         <v>700</v>
-      </c>
-      <c r="B324" s="27" t="s">
-        <v>701</v>
-      </c>
-      <c r="C324" s="28" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C325" s="25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="26" t="s">
-        <v>149</v>
+        <v>703</v>
       </c>
       <c r="B326" s="27" t="s">
-        <v>149</v>
+        <v>703</v>
       </c>
       <c r="C326" s="28" t="s">
-        <v>150</v>
+        <v>704</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -7269,86 +7272,86 @@
         <v>705</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C327" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="26" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B328" s="27" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C328" s="28" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="B329" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="C329" s="25" t="s">
-        <v>710</v>
+      <c r="A329" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="B329" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="C329" s="32" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="26" t="s">
-        <v>711</v>
-      </c>
-      <c r="B330" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="C330" s="28" t="s">
-        <v>712</v>
+      <c r="A330" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="B330" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="C330" s="25" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="23" t="s">
-        <v>713</v>
-      </c>
-      <c r="B331" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="C331" s="25" t="s">
-        <v>714</v>
+      <c r="A331" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B331" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C331" s="28" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="B332" s="27" t="s">
+      <c r="B332" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="C332" s="28" t="s">
+      <c r="C332" s="25" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="23" t="s">
+      <c r="A333" s="30" t="s">
         <v>717</v>
       </c>
-      <c r="B333" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="C333" s="25" t="s">
+      <c r="B333" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="C333" s="32" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="23" t="s">
+      <c r="A334" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="B334" s="24" t="s">
+      <c r="B334" s="27" t="s">
         <v>719</v>
       </c>
-      <c r="C334" s="25" t="s">
+      <c r="C334" s="28" t="s">
         <v>720</v>
       </c>
     </row>
@@ -7368,389 +7371,389 @@
         <v>723</v>
       </c>
       <c r="B336" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="C336" s="28" t="s">
         <v>724</v>
-      </c>
-      <c r="C336" s="28" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="B337" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="C337" s="25" t="s">
         <v>726</v>
-      </c>
-      <c r="B337" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="C337" s="25" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="B338" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="C338" s="28" t="s">
         <v>728</v>
-      </c>
-      <c r="B338" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="C338" s="28" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="B339" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="C339" s="25" t="s">
         <v>730</v>
-      </c>
-      <c r="B339" s="29" t="s">
-        <v>730</v>
-      </c>
-      <c r="C339" s="25" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="B340" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="C340" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="B340" s="39" t="s">
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="39" t="s">
         <v>733</v>
       </c>
-      <c r="C340" s="39" t="s">
+      <c r="B341" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="C341" s="40" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="40" t="s">
+    <row r="342" spans="1:3">
+      <c r="A342" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="B341" s="41" t="s">
+      <c r="B342" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="C341" s="41" t="s">
+      <c r="C342" s="22" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="42" t="s">
+    <row r="343" spans="1:3">
+      <c r="A343" s="41" t="s">
         <v>737</v>
       </c>
-      <c r="B342" s="39" t="s">
+      <c r="B343" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="C342" s="39" t="s">
+      <c r="C343" s="42" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="40" t="s">
+    <row r="344" spans="1:3">
+      <c r="A344" s="39" t="s">
         <v>740</v>
       </c>
-      <c r="B343" s="41" t="s">
+      <c r="B344" s="40" t="s">
+        <v>740</v>
+      </c>
+      <c r="C344" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="C343" s="41" t="s">
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="41" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="42" t="s">
+      <c r="B345" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="C345" s="42" t="s">
         <v>743</v>
       </c>
-      <c r="B344" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="C344" s="39" t="s">
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="39" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="40" t="s">
+      <c r="B346" s="40" t="s">
+        <v>744</v>
+      </c>
+      <c r="C346" s="40" t="s">
         <v>745</v>
       </c>
-      <c r="B345" s="41" t="s">
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="41" t="s">
         <v>746</v>
       </c>
-      <c r="C345" s="41" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="42" t="s">
+      <c r="B347" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="B346" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="C346" s="39" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="40" t="s">
+      <c r="C347" s="42" t="s">
         <v>748</v>
       </c>
-      <c r="B347" s="40" t="s">
-        <v>748</v>
-      </c>
-      <c r="C347" s="41" t="s">
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="39" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="40" t="s">
+      <c r="B348" s="40" t="s">
+        <v>749</v>
+      </c>
+      <c r="C348" s="40" t="s">
         <v>750</v>
       </c>
-      <c r="B348" s="40" t="s">
-        <v>750</v>
-      </c>
-      <c r="C348" s="41" t="s">
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="41" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="40" t="s">
+      <c r="B349" s="42" t="s">
         <v>752</v>
       </c>
-      <c r="B349" s="41" t="s">
-        <v>752</v>
-      </c>
-      <c r="C349" s="41" t="s">
+      <c r="C349" s="42" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="22" t="s">
+      <c r="A350" s="39" t="s">
         <v>754</v>
       </c>
-      <c r="B350" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="C350" s="22" t="s">
+      <c r="B350" s="40" t="s">
         <v>755</v>
       </c>
+      <c r="C350" s="40" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="B351" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="C351" s="22" t="s">
-        <v>281</v>
+      <c r="A351" s="41" t="s">
+        <v>757</v>
+      </c>
+      <c r="B351" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="C351" s="42" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="B352" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C352" s="22" t="s">
-        <v>283</v>
+      <c r="A352" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="B352" s="40" t="s">
+        <v>760</v>
+      </c>
+      <c r="C352" s="40" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="22" t="s">
+      <c r="A353" s="41" t="s">
+        <v>761</v>
+      </c>
+      <c r="B353" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="C353" s="42" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="B354" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="C354" s="40" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="B355" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="C355" s="40" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="B356" s="40" t="s">
+        <v>766</v>
+      </c>
+      <c r="C356" s="40" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="B357" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="C357" s="22" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B358" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="B353" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C353" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="354" ht="28.8" spans="1:3">
-      <c r="A354" s="42" t="s">
-        <v>756</v>
-      </c>
-      <c r="B354" s="39" t="s">
-        <v>757</v>
-      </c>
-      <c r="C354" s="39" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="42" t="s">
-        <v>759</v>
-      </c>
-      <c r="B355" s="39" t="s">
-        <v>759</v>
-      </c>
-      <c r="C355" s="39" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="40" t="s">
-        <v>761</v>
-      </c>
-      <c r="B356" s="41" t="s">
-        <v>762</v>
-      </c>
-      <c r="C356" s="41" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="42" t="s">
-        <v>764</v>
-      </c>
-      <c r="B357" s="39" t="s">
-        <v>765</v>
-      </c>
-      <c r="C357" s="39" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="B358" s="41" t="s">
-        <v>767</v>
-      </c>
-      <c r="C358" s="41" t="s">
-        <v>768</v>
+      <c r="C358" s="22" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="40" t="s">
-        <v>769</v>
-      </c>
-      <c r="B359" s="41" t="s">
+      <c r="A359" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B359" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C359" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B360" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="361" ht="28.8" spans="1:3">
+      <c r="A361" s="41" t="s">
         <v>770</v>
       </c>
-      <c r="C359" s="41" t="s">
+      <c r="B361" s="42" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="42" t="s">
+      <c r="C361" s="42" t="s">
         <v>772</v>
       </c>
-      <c r="B360" s="39" t="s">
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="41" t="s">
         <v>773</v>
       </c>
-      <c r="C360" s="39" t="s">
+      <c r="B362" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="C362" s="42" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="42" t="s">
+    <row r="363" spans="1:3">
+      <c r="A363" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="B361" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="C361" s="39" t="s">
+      <c r="B363" s="40" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="40" t="s">
+      <c r="C363" s="40" t="s">
         <v>777</v>
       </c>
-      <c r="B362" s="41" t="s">
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="41" t="s">
         <v>778</v>
       </c>
-      <c r="C362" s="41" t="s">
+      <c r="B364" s="42" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="22" t="s">
+      <c r="C364" s="42" t="s">
         <v>780</v>
       </c>
-      <c r="B363" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="C363" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="22" t="s">
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="B364" s="22" t="s">
+      <c r="B365" s="40" t="s">
         <v>781</v>
       </c>
-      <c r="C364" s="22" t="s">
+      <c r="C365" s="40" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="22" t="s">
+    <row r="366" spans="1:3">
+      <c r="A366" s="39" t="s">
         <v>783</v>
       </c>
-      <c r="B365" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="C365" s="22" t="s">
+      <c r="B366" s="40" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="22" t="s">
+      <c r="C366" s="40" t="s">
         <v>785</v>
-      </c>
-      <c r="B366" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="C366" s="22" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="B367" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="C367" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="B367" s="22" t="s">
-        <v>788</v>
-      </c>
-      <c r="C367" s="22" t="s">
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="41" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="22" t="s">
+      <c r="B368" s="42" t="s">
         <v>790</v>
       </c>
-      <c r="B368" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="C368" s="22" t="s">
+      <c r="C368" s="42" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" s="22" t="s">
+      <c r="A369" s="41" t="s">
         <v>792</v>
       </c>
-      <c r="B369" s="22" t="s">
+      <c r="B369" s="41" t="s">
         <v>792</v>
       </c>
-      <c r="C369" s="22" t="s">
+      <c r="C369" s="42" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="22" t="s">
+      <c r="A370" s="39" t="s">
         <v>794</v>
       </c>
-      <c r="B370" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="C370" s="22" t="s">
+      <c r="B370" s="40" t="s">
         <v>795</v>
       </c>
+      <c r="C370" s="40" t="s">
+        <v>796</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C368" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:C368">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C370" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:C370">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
@@ -7782,7 +7785,7 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7812,10 +7815,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7824,27 +7827,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7872,7 +7875,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -7919,7 +7922,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>
@@ -7999,10 +8002,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -8011,27 +8014,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="45" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8059,7 +8062,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8106,7 +8109,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>

--- a/translations/config.xlsx
+++ b/translations/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="810">
   <si>
     <t>clé</t>
   </si>
@@ -2439,6 +2439,12 @@
   </si>
   <si>
     <t>AAAA</t>
+  </si>
+  <si>
+    <t>display KPI</t>
+  </si>
+  <si>
+    <t>afficher KPI</t>
   </si>
   <si>
     <t>Les prix à l'achat sont promotionnels et sont fonction de la durée choisie</t>
@@ -3666,12 +3672,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A370" sqref="A370"/>
+      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5555555555556" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -7751,9 +7757,20 @@
         <v>796</v>
       </c>
     </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="B371" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="C371" s="22" t="s">
+        <v>798</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C370" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:C370">
+    <sortState ref="A1:C370">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
@@ -7785,7 +7802,7 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7815,10 +7832,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7827,27 +7844,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7875,7 +7892,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -7922,7 +7939,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>
@@ -8002,10 +8019,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -8014,27 +8031,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="45" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8062,7 +8079,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8109,7 +8126,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>

--- a/translations/config.xlsx
+++ b/translations/config.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="812">
   <si>
     <t>clé</t>
   </si>
@@ -2445,6 +2445,12 @@
   </si>
   <si>
     <t>afficher KPI</t>
+  </si>
+  <si>
+    <t>individual statistics</t>
+  </si>
+  <si>
+    <t>statistiques individuelles</t>
   </si>
   <si>
     <t>Les prix à l'achat sont promotionnels et sont fonction de la durée choisie</t>
@@ -3672,12 +3678,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C371"/>
+  <dimension ref="A1:C372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
+      <selection pane="bottomLeft" activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5555555555556" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -7766,6 +7772,17 @@
       </c>
       <c r="C371" s="22" t="s">
         <v>798</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="B372" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="C372" s="22" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -7802,7 +7819,7 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7832,10 +7849,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7844,27 +7861,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7892,7 +7909,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -7939,7 +7956,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>
@@ -8019,10 +8036,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -8031,27 +8048,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="45" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8079,7 +8096,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8126,7 +8143,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>

--- a/translations/config.xlsx
+++ b/translations/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Feuil2 (2)" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$373</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="819">
   <si>
     <t>clé</t>
   </si>
@@ -319,10 +319,7 @@
     <t>check missing notes</t>
   </si>
   <si>
-    <t>The application will check for missing notes.</t>
-  </si>
-  <si>
-    <t>l'application va checker les notes manquantes.</t>
+    <t>vérification notes manquantes.</t>
   </si>
   <si>
     <t>checked classes</t>
@@ -367,7 +364,10 @@
     <t>class checked</t>
   </si>
   <si>
-    <t>classe vérifée</t>
+    <t>class under review</t>
+  </si>
+  <si>
+    <t>classe en cours de vérification</t>
   </si>
   <si>
     <t>class creation success</t>
@@ -2451,6 +2451,27 @@
   </si>
   <si>
     <t>statistiques individuelles</t>
+  </si>
+  <si>
+    <t>total classes</t>
+  </si>
+  <si>
+    <t>total number of classes</t>
+  </si>
+  <si>
+    <t>nombre total de classes</t>
+  </si>
+  <si>
+    <t>user added</t>
+  </si>
+  <si>
+    <t>Utilisateur ajouté</t>
+  </si>
+  <si>
+    <t>user disabled</t>
+  </si>
+  <si>
+    <t>utilisateur désactivé</t>
   </si>
   <si>
     <t>Les prix à l'achat sont promotionnels et sont fonction de la durée choisie</t>
@@ -3678,12 +3699,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C373" sqref="C373"/>
+      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5555555555556" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4166,86 +4187,86 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" ht="28.8" spans="1:3">
+    <row r="44" spans="1:3">
       <c r="A44" s="26" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="C47" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>110</v>
@@ -7785,9 +7806,42 @@
         <v>800</v>
       </c>
     </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="B373" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="C373" s="22" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="B374" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="C374" s="22" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="B375" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C375" s="22" t="s">
+        <v>807</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C370" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:C370">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C373" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:C373">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
@@ -7819,7 +7873,7 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7849,10 +7903,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7861,27 +7915,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7909,7 +7963,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -7956,7 +8010,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>
@@ -8036,10 +8090,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -8048,27 +8102,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="45" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8096,7 +8150,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8143,7 +8197,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>

--- a/translations/config.xlsx
+++ b/translations/config.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="821">
   <si>
     <t>clé</t>
   </si>
@@ -2472,6 +2472,12 @@
   </si>
   <si>
     <t>utilisateur désactivé</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>inactif</t>
   </si>
   <si>
     <t>Les prix à l'achat sont promotionnels et sont fonction de la durée choisie</t>
@@ -3699,12 +3705,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:C376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
+      <selection pane="bottomLeft" activeCell="C377" sqref="C377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5555555555556" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -7837,6 +7843,17 @@
       </c>
       <c r="C375" s="22" t="s">
         <v>807</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B376" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="C376" s="22" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -7873,7 +7890,7 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7903,10 +7920,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7915,27 +7932,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7963,7 +7980,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8010,7 +8027,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>
@@ -8090,10 +8107,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -8102,27 +8119,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="45" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8150,7 +8167,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8197,7 +8214,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>

--- a/translations/config.xlsx
+++ b/translations/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Feuil2 (2)" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$378</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="830">
   <si>
     <t>clé</t>
   </si>
@@ -934,7 +934,7 @@
     <t>fill rate</t>
   </si>
   <si>
-    <t>taux de remplissage</t>
+    <t>taux remplissage</t>
   </si>
   <si>
     <t>filter</t>
@@ -1436,7 +1436,10 @@
     <t>nb hours affected</t>
   </si>
   <si>
-    <t>nb heures assignées</t>
+    <t>hours affected</t>
+  </si>
+  <si>
+    <t>heures assignées</t>
   </si>
   <si>
     <t>nb missing notes</t>
@@ -2478,6 +2481,30 @@
   </si>
   <si>
     <t>inactif</t>
+  </si>
+  <si>
+    <t>free hours</t>
+  </si>
+  <si>
+    <t>heures libres</t>
+  </si>
+  <si>
+    <t>affectation rate</t>
+  </si>
+  <si>
+    <t>taux affectation</t>
+  </si>
+  <si>
+    <t>general average trend</t>
+  </si>
+  <si>
+    <t>évolution moyenne générale</t>
+  </si>
+  <si>
+    <t>overall average</t>
+  </si>
+  <si>
+    <t>moyenne générale</t>
   </si>
   <si>
     <t>Les prix à l'achat sont promotionnels et sont fonction de la durée choisie</t>
@@ -3705,12 +3732,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C376"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C377" sqref="C377"/>
+      <selection pane="bottomLeft" activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5555555555556" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -6002,455 +6029,455 @@
         <v>461</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B210" s="29" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C213" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="23" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B215" s="29" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="216" ht="28.8" spans="1:3">
       <c r="A216" s="26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B217" s="29" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="23" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B219" s="29" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B221" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="23" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B222" s="29" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C223" s="28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="23" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B224" s="29" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="26" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="23" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C227" s="28" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B228" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="23" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B229" s="29" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B231" s="29" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B232" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B233" s="29" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B235" s="27" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="23" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B236" s="29" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B237" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B239" s="29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C240" s="28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="23" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B241" s="29" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="26" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B242" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C242" s="28" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="23" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B243" s="29" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C244" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="23" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B246" s="29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="26" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B247" s="27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C247" s="28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B248" s="29" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B249" s="29" t="s">
         <v>72</v>
@@ -6461,351 +6488,351 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="26" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B251" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="23" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B252" s="29" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="23" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="26" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B254" s="27" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="23" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B255" s="29" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="26" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="23" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B257" s="29" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B258" s="27" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="23" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B259" s="29" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="26" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="23" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B261" s="29" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="30" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C262" s="32" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="30" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B264" s="24" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="26" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B265" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="23" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B266" s="29" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="26" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B267" s="27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="26" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B268" s="27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="23" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B269" s="29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B270" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="23" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B271" s="29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B272" s="27" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="26" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B273" s="27" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B274" s="29" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C274" s="25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="26" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B275" s="27" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="23" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B276" s="29" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="26" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B277" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B278" s="29" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C278" s="25" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="26" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B279" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="23" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B280" s="29" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B281" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C281" s="28" t="s">
         <v>298</v>
@@ -6813,10 +6840,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="23" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B282" s="29" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C282" s="25" t="s">
         <v>298</v>
@@ -6824,134 +6851,134 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B283" s="24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C285" s="28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="23" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B286" s="29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="30" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="30" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="30" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="26" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="23" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B291" s="29" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="26" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B292" s="27" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C292" s="28" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="23" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B293" s="29" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="294" ht="144" customHeight="1" spans="1:3">
       <c r="A294" s="26" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B294" s="27" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C294" s="28" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="295" ht="17.4" customHeight="1" spans="1:3">
@@ -6962,15 +6989,15 @@
         <v>436</v>
       </c>
       <c r="C295" s="28" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="23" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B296" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C296" s="25" t="s">
         <v>283</v>
@@ -6978,21 +7005,21 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B297" s="27" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C297" s="28" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="30" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C298" s="32" t="s">
         <v>11</v>
@@ -7000,354 +7027,354 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B299" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="26" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C300" s="28" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B301" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B302" s="27" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C302" s="28" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="23" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B303" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="304" ht="196.2" customHeight="1" spans="1:3">
       <c r="A304" s="26" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B304" s="27" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C304" s="28" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="23" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B305" s="29" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B306" s="27" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C306" s="28" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="23" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B307" s="29" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C308" s="28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="23" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B309" s="29" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C309" s="25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="26" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B310" s="27" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C310" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="23" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B311" s="29" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C311" s="25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B312" s="33" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C312" s="28" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="30" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B313" s="31" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C313" s="32" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B314" s="27" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C314" s="28" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="23" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B315" s="29" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C315" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="26" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B316" s="27" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="23" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B317" s="29" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C317" s="25" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="318" ht="28.8" spans="1:3">
       <c r="A318" s="26" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B318" s="27" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="23" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B319" s="29" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C319" s="25" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="26" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B320" s="27" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C320" s="28" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="26" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B321" s="33" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C321" s="28" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="30" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B322" s="31" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C322" s="32" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="B323" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="C323" s="25" t="s">
         <v>697</v>
-      </c>
-      <c r="B323" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="C323" s="25" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="23" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B324" s="29" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C324" s="25" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="23" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C325" s="25" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="26" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B326" s="27" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C326" s="28" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="23" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C327" s="25" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="26" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B328" s="27" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C328" s="28" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="30" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="23" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B330" s="29" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C330" s="25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -7363,288 +7390,288 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="23" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C332" s="25" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="30" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B333" s="31" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C333" s="32" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="26" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B334" s="27" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C334" s="28" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="23" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B335" s="29" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C335" s="25" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="26" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B336" s="27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C336" s="28" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B337" s="29" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C337" s="25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="26" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B338" s="27" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C338" s="28" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B339" s="24" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C339" s="25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="38" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B340" s="39" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C340" s="40" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="39" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B341" s="40" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C341" s="40" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="41" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B343" s="42" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C343" s="42" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="39" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B344" s="40" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C344" s="40" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="41" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B345" s="42" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C345" s="42" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="39" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B346" s="40" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C346" s="40" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="41" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B347" s="42" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C347" s="42" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="39" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B348" s="40" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C348" s="40" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="41" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B349" s="42" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C349" s="42" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="39" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B350" s="40" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C350" s="40" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="41" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B351" s="42" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C351" s="42" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="39" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B352" s="40" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C352" s="40" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="41" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B353" s="42" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C353" s="42" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="39" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B354" s="39" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C354" s="40" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="39" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B355" s="39" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C355" s="40" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="39" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B356" s="40" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C356" s="40" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="22" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B357" s="22" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -7682,183 +7709,227 @@
     </row>
     <row r="361" ht="28.8" spans="1:3">
       <c r="A361" s="41" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B361" s="42" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C361" s="42" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="41" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B362" s="42" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C362" s="42" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="39" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B363" s="40" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C363" s="40" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="41" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B364" s="42" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C364" s="42" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="39" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B365" s="40" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C365" s="40" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="39" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B366" s="40" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C366" s="40" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C367" s="22" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="41" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B368" s="42" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C368" s="42" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B369" s="41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C369" s="42" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="39" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B370" s="40" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C370" s="40" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="22" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C371" s="22" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="22" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B372" s="22" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C372" s="22" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="22" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C373" s="22" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="22" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B374" s="22" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C374" s="22" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C375" s="22" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="22" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C376" s="22" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="B377" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="C377" s="22" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="B378" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="C378" s="22" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="B379" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="C379" s="22" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="B380" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="C380" s="22" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C373" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:C373">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C378" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:C378">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
@@ -7890,7 +7961,7 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7920,10 +7991,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7932,27 +8003,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7980,7 +8051,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8027,7 +8098,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>
@@ -8107,10 +8178,10 @@
     </row>
     <row r="7" ht="27.6" customHeight="1" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -8119,27 +8190,27 @@
     <row r="8" s="1" customFormat="1" ht="64.2" customHeight="1" spans="2:8">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="45" customHeight="1" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8167,7 +8238,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="38.4" customHeight="1" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C10" s="13">
         <f>F10/E10*12</f>
@@ -8214,7 +8285,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="F12" s="9">
         <v>560.5</v>
